--- a/ProjectData/02_Requirements/Requirement.xlsx
+++ b/ProjectData/02_Requirements/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbuch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD35CFF4-3B76-44AE-8706-9659D6B5EBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86BFAC-4A61-4744-9CAB-568E1B26A944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E31EAF4E-D57A-42E8-AFD9-A1E179587F3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Durch wischen nach links oder rechts einfach zwischen den drei Hauptfunktionen, sprich Lebensmittelliste, Kochrezept Liste und Einkaufsliste wechseln können</t>
   </si>
@@ -118,12 +118,21 @@
   <si>
     <t>Einkaufsliste verändern</t>
   </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Das Design ist fertig</t>
+  </si>
+  <si>
+    <t>Wichtigkeit des Requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +171,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,11 +319,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -717,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE0F123-033B-489A-89E7-A1E8C5E440BF}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,10 +794,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -745,7 +811,9 @@
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -765,7 +833,9 @@
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -780,12 +850,14 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -803,9 +875,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -823,9 +897,11 @@
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -838,14 +914,16 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -863,9 +941,11 @@
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -883,9 +963,11 @@
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -903,9 +985,11 @@
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -918,14 +1002,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -943,9 +1029,11 @@
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -962,10 +1050,12 @@
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -982,10 +1072,12 @@
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1003,9 +1095,11 @@
         <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1023,9 +1117,11 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1038,14 +1134,16 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1058,14 +1156,16 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1078,14 +1178,16 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1098,14 +1200,16 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1118,23 +1222,57 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
+    <row r="23" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A163">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="A4:A164">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>"nein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A217">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:A218">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"nein"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ProjectData/02_Requirements/Requirement.xlsx
+++ b/ProjectData/02_Requirements/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbuch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86BFAC-4A61-4744-9CAB-568E1B26A944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C2CF6F-4233-4972-A82F-9D051D719B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E31EAF4E-D57A-42E8-AFD9-A1E179587F3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Durch wischen nach links oder rechts einfach zwischen den drei Hauptfunktionen, sprich Lebensmittelliste, Kochrezept Liste und Einkaufsliste wechseln können</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>in den Einstellungen sehen können wer die App entwickelt hat.</t>
-  </si>
-  <si>
-    <t>in den Einstellungen alle Daten von der App löschen können.</t>
   </si>
   <si>
     <t>in den Einstellungen eine Erklärung finden wie die App funktioniert</t>
@@ -125,14 +122,35 @@
     <t>Das Design ist fertig</t>
   </si>
   <si>
-    <t>Wichtigkeit des Requirements</t>
+    <t>Wichtigkeit</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Zuständige Person</t>
+  </si>
+  <si>
+    <t>Eine Pushup benachrichtigung senden lassen, wenn ein Lebensmittel einen Tag vor dem Abalaufsdatum via Pushup benachrichtigung gesendet.</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/how-to-set-an-android-notification-to-a-specific-date-in-the-future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +197,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Barcode"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -323,11 +362,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -339,32 +390,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -385,66 +420,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,33 +755,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE0F123-033B-489A-89E7-A1E8C5E440BF}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="67.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="21.6" thickBot="1">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="39.6">
+      <c r="A4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -814,8 +796,10 @@
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -826,18 +810,20 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="26.4">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="16"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -848,18 +834,20 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -870,18 +858,20 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -892,18 +882,20 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -914,18 +906,20 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -936,9 +930,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="26.4">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -946,10 +940,12 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -958,9 +954,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="26.4">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>2</v>
@@ -968,8 +964,10 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -980,9 +978,9 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="26.4">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
@@ -990,8 +988,10 @@
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1002,9 +1002,9 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="26.4">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>4</v>
@@ -1012,8 +1012,10 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1024,9 +1026,9 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>5</v>
@@ -1034,8 +1036,10 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="16"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1046,9 +1050,9 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>6</v>
@@ -1056,8 +1060,10 @@
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1068,9 +1074,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>7</v>
@@ -1078,8 +1084,10 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="16"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1090,9 +1098,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>8</v>
@@ -1100,8 +1108,10 @@
       <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1112,9 +1122,9 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>9</v>
@@ -1122,8 +1132,10 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="16"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1134,9 +1146,9 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="26.4">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>10</v>
@@ -1144,8 +1156,10 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="16"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1156,18 +1170,20 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="66">
       <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1178,19 +1194,23 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="57.6">
       <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1200,18 +1220,20 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="26.4">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1222,18 +1244,20 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="40.200000000000003" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1245,26 +1269,49 @@
       <c r="N23" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A164">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>"nein"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A218">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C23">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1275,6 +1322,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D23">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ProjectData/02_Requirements/Requirement.xlsx
+++ b/ProjectData/02_Requirements/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbuch\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C2CF6F-4233-4972-A82F-9D051D719B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EE1FC-3BBC-44E5-A159-AFA20EC55216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E31EAF4E-D57A-42E8-AFD9-A1E179587F3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Durch wischen nach links oder rechts einfach zwischen den drei Hauptfunktionen, sprich Lebensmittelliste, Kochrezept Liste und Einkaufsliste wechseln können</t>
   </si>
@@ -48,12 +48,6 @@
     <t>in den Einstellungen zwischen den Dark Mode und den Normal Mode wechseln können.</t>
   </si>
   <si>
-    <t>als Dark Mode ein dunkles Farbschema, was für die Nacht geeignet ist.</t>
-  </si>
-  <si>
-    <t>als Normal Mode ein helles Farbschema, was für den Tag geeignet ist.</t>
-  </si>
-  <si>
     <t>in den Einstellungen die Sprache ändern können</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
   </si>
   <si>
     <t>in den Einstellungen eine Erklärung finden wie die App funktioniert</t>
-  </si>
-  <si>
-    <t>in den Einstellungen die Schriftgröße umstellen können in drei Größen klein, mittel, groß</t>
   </si>
   <si>
     <r>
@@ -89,9 +80,6 @@
     <t>, dass in jeder liste in jedem Listenelement links der Name steht und drei knöpfe sind durch die ich die Anzahl der zum Beispiel Bananen erhöhen, verringern oder gänzlich löschen kann.</t>
   </si>
   <si>
-    <t>durch meine Listen mit dem Finger nach oben und nach unten wischen zu können um die Listeninhalte zu sehen die ich bisher nicht sehen konnte</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -144,13 +132,64 @@
   </si>
   <si>
     <t>https://www.tutorialspoint.com/how-to-set-an-android-notification-to-a-specific-date-in-the-future</t>
+  </si>
+  <si>
+    <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>Dark Mode ein dunkles Farbschema, was für die Nacht geeignet ist. Erstellen</t>
+  </si>
+  <si>
+    <t>Normal Mode ein helles Farbschema, was für den Tag geeignet ist erstellen</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>in den Einstellungen die Schriftgröße umstellen können Groß klein</t>
+  </si>
+  <si>
+    <t>Textgröße berchenen für verschiedene Bildschrim größen</t>
+  </si>
+  <si>
+    <t>Eine Listview erstellen aus dem Design der Systemspecs, die Funktioniert.</t>
+  </si>
+  <si>
+    <t>Chirs Stunden</t>
+  </si>
+  <si>
+    <t>Robert Stunden</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Chris Prozent</t>
+  </si>
+  <si>
+    <t>Robert Prozent</t>
+  </si>
+  <si>
+    <t>Chirs ABS</t>
+  </si>
+  <si>
+    <t>Chris Now</t>
+  </si>
+  <si>
+    <t>Robert NOW</t>
+  </si>
+  <si>
+    <t>Einen Barcode Scanner erstellen der Barcodes scannen kann und einen String  zurückbekommen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +257,39 @@
       <color theme="1"/>
       <name val="Barcode"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFEC7C30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -325,11 +397,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -368,17 +532,79 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -753,565 +979,1118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE0F123-033B-489A-89E7-A1E8C5E440BF}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="67.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="21.6" thickBot="1">
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="21.6" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="39.6">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="H3" s="26"/>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="40.200000000000003" thickBot="1">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="28">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="26.4">
-      <c r="A5" s="6" t="s">
+      <c r="N4" s="2">
+        <f>IF(G4="C",D4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="O4" s="2">
+        <f>IF(G4="C",E4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <f>IF(G4="F",E4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27.6">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="28">
+        <v>5</v>
+      </c>
+      <c r="E5" s="28">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N25" si="0">IF(G5="C",D5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <f>IF(G5="C",E5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <f>IF(G5="F",E5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="27.6">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="28">
+        <v>40</v>
+      </c>
+      <c r="E6" s="28">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="16">
+        <f>E26/D26</f>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O6" s="2">
+        <f>IF(G6="C",E6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="P6" s="2">
+        <f>IF(G6="F",E6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="27.6">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="6" t="s">
+      <c r="D7" s="28">
+        <v>15</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="H7" s="25"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f>IF(G7="C",E7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f>IF(G7="F",E7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.2" thickBot="1">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="28">
+        <v>15</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="G8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <f>IF(G8="C",E8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f>IF(G8="F",E8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="27.6">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="28">
+        <v>30</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="G9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
-        <v>9</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="26.4">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O9" s="2">
+        <f>IF(G9="C",E9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <f>IF(G9="F",E9,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27.6">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="28">
+        <v>20</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="25"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="26.4">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <f>IF(G10="C",E10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <f>IF(G10="F",E10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27.6">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28">
+        <v>10</v>
+      </c>
+      <c r="E11" s="28">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="25"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="26.4">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O11" s="2">
+        <f>IF(G11="C",E11,0)</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="2">
+        <f>IF(G11="F",E11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.6">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="28">
+        <v>15</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="25"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="26.4">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <f>IF(G12="C",E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <f>IF(G12="F",E12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.6">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="28">
         <v>5</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <f>IF(G13="C",E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <f>IF(G13="F",E13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.6">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="28">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="25"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f>IF(G14="C",E14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <f>IF(G14="F",E14,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.6">
+      <c r="A15" s="12">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="25"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <f>IF(G15="C",E15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <f>IF(G15="F",E15,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27.6">
+      <c r="A16" s="12">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="28">
+        <v>5</v>
+      </c>
+      <c r="E16" s="28">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="25"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="N16" s="2">
+        <f>IF(G16="C",D16,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <f>IF(G16="C",E16,0)</f>
+        <v>5</v>
+      </c>
+      <c r="P16" s="2">
+        <f>IF(G16="F",E16,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27.6">
+      <c r="A17" s="12">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="28">
+        <v>5</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="25"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="O17" s="2">
+        <f>IF(G17="C",E17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <f>IF(G17="F",E17,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27.6">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="28">
+        <v>20</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="25"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="26.4">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <f>IF(G18="C",E18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <f>IF(G18="F",E18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27.6">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="28">
+        <v>20</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="25"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="66">
-      <c r="A20" s="6" t="s">
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <f>IF(G19="C",E19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <f>IF(G19="F",E19,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="27.6">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="28">
+        <v>10</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="25"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="57.6">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <f>IF(G20="C",E20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <f>IF(G20="F",E20,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="66">
+      <c r="A21" s="12">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="28">
+        <v>10</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="25"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="26.4">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O21" s="2">
+        <f>IF(G21="C",E21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <f>IF(G21="F",E21,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="58.8">
+      <c r="A22" s="12">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="D22" s="28">
+        <v>15</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="40.200000000000003" thickBot="1">
-      <c r="A23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <f>IF(G22="C",E22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <f>IF(G22="F",E22,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="27.6">
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="28">
+        <v>25</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="25"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="O23" s="2">
+        <f>IF(G23="C",E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <f>IF(G23="F",E23,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="40.200000000000003" thickBot="1">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="28">
+        <v>10</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O24" s="2">
+        <f>IF(G24="C",E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <f>IF(G24="F",E24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="27.6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="28">
+        <v>20</v>
+      </c>
+      <c r="E25" s="28">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <f>IF(G25="C",E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <f>IF(G25="F",E25,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="46.8" customHeight="1">
+      <c r="D26" s="3">
+        <f>SUM(D3:D25)</f>
+        <v>310</v>
+      </c>
+      <c r="E26" s="3">
+        <f>SUM(E3:E25)</f>
+        <v>70</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="42">
+      <c r="D27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="30">
+        <f>SUM(N4:N24)</f>
+        <v>150</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="31">
+        <f>SUM(O4:O26)/E27</f>
+        <v>0.4</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" ht="42">
+      <c r="D28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="30">
+        <f>D26-E27</f>
+        <v>160</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="31">
+        <f>SUM(P4:P26)/E28</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="14:16">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="14:16">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="14:16">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="14:16">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="14:16">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="14:16">
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+  <mergeCells count="25">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J6:L8"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A164">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="B4:B166">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>"nein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A218">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="B4:B220">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C23">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="F4:F25">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1322,17 +2101,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D23">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="G4:G25">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D28">
+  <conditionalFormatting sqref="G4:G30">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"ja"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NA"</formula>
+      <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
